--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>종목명</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>차량용 반도체</t>
+  </si>
+  <si>
+    <t>재료</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -92,7 +95,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -419,6 +422,9 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>종목명</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>재료</t>
+  </si>
+  <si>
+    <t>013000</t>
+  </si>
+  <si>
+    <t>세우글로벌</t>
+  </si>
+  <si>
+    <t>엔지니어링 플라스틱 및 ABS수지 등 고분자 석유화학 상품의 유통업을 주력사업으로 영위하고 있으며, Sabic Innovative Plastic의 국내 대리점 업체임.</t>
   </si>
 </sst>
 </file>
@@ -392,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -454,6 +463,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44929</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>종목명</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>엔지니어링 플라스틱 및 ABS수지 등 고분자 석유화학 상품의 유통업을 주력사업으로 영위하고 있으며, Sabic Innovative Plastic의 국내 대리점 업체임.</t>
+  </si>
+  <si>
+    <t>058110</t>
+  </si>
+  <si>
+    <t>멕아이씨에스</t>
+  </si>
+  <si>
+    <t>중국산소호흡기 부족, 폴란드엦오에 인공호흡기 대량 입찰에 참여/실적호전 기대</t>
   </si>
 </sst>
 </file>
@@ -401,11 +410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -480,6 +489,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44928</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>종목명</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>중국산소호흡기 부족, 폴란드엦오에 인공호흡기 대량 입찰에 참여/실적호전 기대</t>
+  </si>
+  <si>
+    <t>116100</t>
+  </si>
+  <si>
+    <t>태양기계</t>
+  </si>
+  <si>
+    <t>업종</t>
+  </si>
+  <si>
+    <t>테마</t>
+  </si>
+  <si>
+    <t>중요라인상한</t>
+  </si>
+  <si>
+    <t>중요라인하한</t>
+  </si>
+  <si>
+    <t>재무상태</t>
+  </si>
+  <si>
+    <t>2022년실적</t>
+  </si>
+  <si>
+    <t>중심주</t>
   </si>
 </sst>
 </file>
@@ -410,11 +437,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>44929</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>44908</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>44929</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>44928</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -503,21 +651,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="상승파동비율" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>종목명</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>중심주</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>종목</t>
+  </si>
+  <si>
+    <t>조일알미뉼</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>900290</t>
+  </si>
+  <si>
+    <t>018470</t>
+  </si>
+  <si>
+    <t>일봉에서 20일 이평 돌파를 기다린다</t>
   </si>
 </sst>
 </file>
@@ -103,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +132,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nunito"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,11 +190,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -142,6 +245,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,15 +568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -551,8 +682,121 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -562,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="A1:E6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -670,12 +914,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:27" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E1" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F1" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G1" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="H1" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I1" s="13">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="J1" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K1" s="13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L1" s="13">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="M1" s="13">
+        <v>1</v>
+      </c>
+      <c r="N1" s="13">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="O1" s="13">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="P1" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickBot="1"/>
+    <row r="5" spans="1:27" ht="15" thickBot="1">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickBot="1">
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>29745</v>
+      </c>
+      <c r="D6" s="8">
+        <v>31512</v>
+      </c>
+      <c r="E6" s="8">
+        <v>33573</v>
+      </c>
+      <c r="F6" s="8">
+        <v>35635</v>
+      </c>
+      <c r="G6" s="8">
+        <v>36813</v>
+      </c>
+      <c r="H6" s="8">
+        <v>40700</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44175</v>
+      </c>
+      <c r="J6" s="8">
+        <v>47650</v>
+      </c>
+      <c r="K6" s="8">
+        <v>53952</v>
+      </c>
+      <c r="L6" s="8">
+        <v>58900</v>
+      </c>
+      <c r="M6" s="10">
+        <v>70150</v>
+      </c>
+      <c r="N6" s="10">
+        <v>77100</v>
+      </c>
+      <c r="O6" s="10">
+        <v>88350</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickBot="1">
+      <c r="B7" s="7">
+        <v>30200</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -102,9 +102,6 @@
     <t>종목</t>
   </si>
   <si>
-    <t>조일알미뉼</t>
-  </si>
-  <si>
     <t>GRT</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>일봉에서 20일 이평 돌파를 기다린다</t>
+  </si>
+  <si>
+    <t>조일알미늄</t>
   </si>
 </sst>
 </file>
@@ -258,6 +258,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,10 +272,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,7 +571,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -687,13 +687,13 @@
         <v>44937</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -702,10 +702,10 @@
         <v>44938</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -922,53 +922,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:27" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="9">
         <v>0.01</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="9">
         <v>0.21</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="9">
         <v>0.25</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="9">
         <v>0.38200000000000001</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="9">
         <v>0.5</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="9">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="9">
         <v>0.83199999999999996</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="9">
         <v>1</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="9">
         <v>1.3819999999999999</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="9">
         <v>1.6180000000000001</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1033,43 +1033,43 @@
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>29745</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>31512</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>33573</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>35635</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>36813</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>40700</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>44175</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>47650</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>53952</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <v>58900</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="12">
         <v>70150</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="12">
         <v>77100</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="12">
         <v>88350</v>
       </c>
       <c r="P6" s="6"/>
@@ -1089,19 +1089,19 @@
       <c r="B7" s="7">
         <v>30200</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1117,11 +1117,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I6:I7"/>
@@ -1130,6 +1125,11 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="22200" windowHeight="3972" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>종목명</t>
   </si>
@@ -115,16 +115,66 @@
   </si>
   <si>
     <t>조일알미늄</t>
+  </si>
+  <si>
+    <t>현재가</t>
+  </si>
+  <si>
+    <t>최저가</t>
+  </si>
+  <si>
+    <t>최저가일</t>
+  </si>
+  <si>
+    <t>52주최고가</t>
+  </si>
+  <si>
+    <t>52주최저가</t>
+  </si>
+  <si>
+    <t>매입가</t>
+  </si>
+  <si>
+    <t>매입일</t>
+  </si>
+  <si>
+    <t>파동위치</t>
+  </si>
+  <si>
+    <t>수익율</t>
+  </si>
+  <si>
+    <t>이승조 사계절 패턴</t>
+  </si>
+  <si>
+    <t>내재가치</t>
+  </si>
+  <si>
+    <t>숙향기준</t>
+  </si>
+  <si>
+    <t>120일 이격율 기준</t>
+  </si>
+  <si>
+    <t>여름2단계: 120이격율 50%이상, 여름3단계(극점): 120이격율 100%이상</t>
+  </si>
+  <si>
+    <t>피보나치 되돌림 기준</t>
+  </si>
+  <si>
+    <t>종가</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +199,20 @@
       <color theme="1"/>
       <name val="Nunito"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Nunito"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +240,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,10 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,7 +333,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,13 +348,75 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510541</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541021</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7216141" y="1021080"/>
+          <a:ext cx="4907280" cy="3467482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -914,62 +1050,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="16">
         <v>0.01</v>
       </c>
-      <c r="E1" s="9">
+      <c r="F1" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F1" s="9">
+      <c r="G1" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G1" s="9">
+      <c r="H1" s="16">
         <v>0.21</v>
       </c>
-      <c r="H1" s="9">
+      <c r="I1" s="17">
         <v>0.25</v>
       </c>
-      <c r="I1" s="9">
+      <c r="J1" s="13">
         <v>0.38200000000000001</v>
       </c>
-      <c r="J1" s="9">
+      <c r="K1" s="16">
         <v>0.5</v>
       </c>
-      <c r="K1" s="9">
+      <c r="L1" s="13">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L1" s="9">
+      <c r="M1" s="13">
         <v>0.83199999999999996</v>
       </c>
-      <c r="M1" s="9">
+      <c r="N1" s="17">
         <v>1</v>
       </c>
-      <c r="N1" s="9">
+      <c r="O1" s="14">
         <v>1.3819999999999999</v>
       </c>
-      <c r="O1" s="9">
+      <c r="P1" s="14">
         <v>1.6180000000000001</v>
       </c>
-      <c r="P1" s="9">
+      <c r="Q1" s="18">
         <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1"/>
@@ -1033,43 +1181,43 @@
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>29745</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>31512</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>33573</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>35635</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>36813</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>40700</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>44175</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>47650</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>53952</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>58900</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>70150</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>77100</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>88350</v>
       </c>
       <c r="P6" s="6"/>
@@ -1089,19 +1237,19 @@
       <c r="B7" s="7">
         <v>30200</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1115,8 +1263,83 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I6:I7"/>
@@ -1125,12 +1348,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,18 +336,6 @@
     <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -362,6 +350,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,67 +1059,67 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="12">
         <v>0.01</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="12">
         <v>0.21</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="13">
         <v>0.25</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="9">
         <v>0.38200000000000001</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="12">
         <v>0.5</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="9">
         <v>0.61799999999999999</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="9">
         <v>0.83199999999999996</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="13">
         <v>1</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="10">
         <v>1.3819999999999999</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="10">
         <v>1.6180000000000001</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="14">
         <v>2</v>
       </c>
       <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="T1" t="s">
@@ -1181,43 +1187,43 @@
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="15">
         <v>29745</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="15">
         <v>31512</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="15">
         <v>33573</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="15">
         <v>35635</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="15">
         <v>36813</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="15">
         <v>40700</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="15">
         <v>44175</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="15">
         <v>47650</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="15">
         <v>53952</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="15">
         <v>58900</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="17">
         <v>70150</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="17">
         <v>77100</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="17">
         <v>88350</v>
       </c>
       <c r="P6" s="6"/>
@@ -1237,19 +1243,19 @@
       <c r="B7" s="7">
         <v>30200</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1335,11 +1341,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I6:I7"/>
@@ -1348,6 +1349,11 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/관심종목.xlsx
+++ b/Data/관심종목.xlsx
@@ -352,6 +352,12 @@
     <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -362,12 +368,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,16 +384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510541</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>541021</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61342</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -411,7 +411,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7216141" y="1021080"/>
+          <a:off x="9159241" y="586740"/>
           <a:ext cx="4907280" cy="3467482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1059,16 +1059,16 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1187,43 +1187,43 @@
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>29745</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>31512</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>33573</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <v>35635</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>36813</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="17">
         <v>40700</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <v>44175</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="17">
         <v>47650</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="17">
         <v>53952</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="17">
         <v>58900</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="19">
         <v>70150</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>77100</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="19">
         <v>88350</v>
       </c>
       <c r="P6" s="6"/>
@@ -1243,19 +1243,19 @@
       <c r="B7" s="7">
         <v>30200</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1341,6 +1341,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I6:I7"/>
@@ -1349,11 +1354,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
